--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H2">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N2">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O2">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P2">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q2">
-        <v>87.93324367586665</v>
+        <v>13.1886423284</v>
       </c>
       <c r="R2">
-        <v>791.3991930827999</v>
+        <v>118.6977809556</v>
       </c>
       <c r="S2">
-        <v>0.02862911209749067</v>
+        <v>0.004295286198326771</v>
       </c>
       <c r="T2">
-        <v>0.02862911209749067</v>
+        <v>0.00429528619832677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H3">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N3">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q3">
-        <v>583.2104282819236</v>
+        <v>1359.540966943799</v>
       </c>
       <c r="R3">
-        <v>5248.893854537312</v>
+        <v>12235.86870249419</v>
       </c>
       <c r="S3">
-        <v>0.1898803686721178</v>
+        <v>0.4427762468619447</v>
       </c>
       <c r="T3">
-        <v>0.1898803686721178</v>
+        <v>0.4427762468619446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H4">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N4">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O4">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P4">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q4">
-        <v>259.2234707310253</v>
+        <v>29.71820502261334</v>
       </c>
       <c r="R4">
-        <v>2333.011236579228</v>
+        <v>267.46384520352</v>
       </c>
       <c r="S4">
-        <v>0.08439740752900153</v>
+        <v>0.009678645663003752</v>
       </c>
       <c r="T4">
-        <v>0.08439740752900154</v>
+        <v>0.00967864566300375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>682.901626</v>
       </c>
       <c r="I5">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J5">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N5">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O5">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P5">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q5">
-        <v>183.4501401311333</v>
+        <v>14.83603782485</v>
       </c>
       <c r="R5">
-        <v>1651.0512611802</v>
+        <v>133.52434042365</v>
       </c>
       <c r="S5">
-        <v>0.05972729318929931</v>
+        <v>0.004831811108388972</v>
       </c>
       <c r="T5">
-        <v>0.05972729318929932</v>
+        <v>0.004831811108388972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>682.901626</v>
       </c>
       <c r="I6">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J6">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N6">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q6">
-        <v>1216.718846272023</v>
+        <v>1529.361454179213</v>
       </c>
       <c r="R6">
-        <v>10950.46961644821</v>
+        <v>13764.25308761292</v>
       </c>
       <c r="S6">
-        <v>0.3961366462205393</v>
+        <v>0.4980835011533644</v>
       </c>
       <c r="T6">
-        <v>0.3961366462205393</v>
+        <v>0.4980835011533644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>682.901626</v>
       </c>
       <c r="I7">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J7">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N7">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O7">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P7">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q7">
-        <v>540.8032280280446</v>
+        <v>33.43031093145333</v>
       </c>
       <c r="R7">
-        <v>4867.229052252402</v>
+        <v>300.87279838308</v>
       </c>
       <c r="S7">
-        <v>0.1760735256733051</v>
+        <v>0.01088760689494445</v>
       </c>
       <c r="T7">
-        <v>0.1760735256733051</v>
+        <v>0.01088760689494445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H8">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I8">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J8">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N8">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O8">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P8">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q8">
-        <v>0.1568023512</v>
+        <v>0.0114704524</v>
       </c>
       <c r="R8">
-        <v>1.4112211608</v>
+        <v>0.1032340716</v>
       </c>
       <c r="S8">
-        <v>5.105136467161782E-05</v>
+        <v>3.735704908471902E-06</v>
       </c>
       <c r="T8">
-        <v>5.105136467161783E-05</v>
+        <v>3.735704908471902E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H9">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I9">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J9">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N9">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q9">
-        <v>1.039979450048</v>
+        <v>1.182422690590222</v>
       </c>
       <c r="R9">
-        <v>9.359815050432001</v>
+        <v>10.641804215312</v>
       </c>
       <c r="S9">
-        <v>0.0003385942222745765</v>
+        <v>0.0003850922435392736</v>
       </c>
       <c r="T9">
-        <v>0.0003385942222745765</v>
+        <v>0.0003850922435392736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H10">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I10">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J10">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N10">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O10">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P10">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q10">
-        <v>0.462246677112</v>
+        <v>0.02584657674666667</v>
       </c>
       <c r="R10">
-        <v>4.160220094008</v>
+        <v>0.23261919072</v>
       </c>
       <c r="S10">
-        <v>0.0001504972565837921</v>
+        <v>8.417731075691348E-06</v>
       </c>
       <c r="T10">
-        <v>0.0001504972565837922</v>
+        <v>8.417731075691348E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H11">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I11">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J11">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N11">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O11">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P11">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q11">
-        <v>17.77079478983333</v>
+        <v>0.78701441225</v>
       </c>
       <c r="R11">
-        <v>159.9371531085</v>
+        <v>7.083129710250001</v>
       </c>
       <c r="S11">
-        <v>0.00578577628700932</v>
+        <v>0.0002563154006794409</v>
       </c>
       <c r="T11">
-        <v>0.005785776287009321</v>
+        <v>0.0002563154006794409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H12">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I12">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J12">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N12">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q12">
-        <v>117.8634201018711</v>
+        <v>81.1287703757811</v>
       </c>
       <c r="R12">
-        <v>1060.77078091684</v>
+        <v>730.15893338203</v>
       </c>
       <c r="S12">
-        <v>0.03837371311728591</v>
+        <v>0.02642207431252627</v>
       </c>
       <c r="T12">
-        <v>0.03837371311728591</v>
+        <v>0.02642207431252627</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H13">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I13">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J13">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N13">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O13">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P13">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q13">
-        <v>52.38754890073166</v>
+        <v>1.773393733533334</v>
       </c>
       <c r="R13">
-        <v>471.487940106585</v>
+        <v>15.9605436018</v>
       </c>
       <c r="S13">
-        <v>0.01705622296295939</v>
+        <v>0.0005775601034719247</v>
       </c>
       <c r="T13">
-        <v>0.0170562229629594</v>
+        <v>0.0005775601034719246</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H14">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I14">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J14">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N14">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O14">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P14">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q14">
-        <v>0.6229260462999999</v>
+        <v>0.05013578184999999</v>
       </c>
       <c r="R14">
-        <v>5.6063344167</v>
+        <v>0.45122203665</v>
       </c>
       <c r="S14">
-        <v>0.0002028108922457942</v>
+        <v>1.632825627236128E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002028108922457943</v>
+        <v>1.632825627236128E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H15">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I15">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J15">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N15">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q15">
-        <v>4.131508756685334</v>
+        <v>5.168208192897554</v>
       </c>
       <c r="R15">
-        <v>37.183578810168</v>
+        <v>46.51387373607799</v>
       </c>
       <c r="S15">
-        <v>0.001345127535189187</v>
+        <v>0.0016831856356609</v>
       </c>
       <c r="T15">
-        <v>0.001345127535189188</v>
+        <v>0.0016831856356609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H16">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I16">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J16">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N16">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O16">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P16">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q16">
-        <v>1.836359549363</v>
+        <v>0.1129718591866667</v>
       </c>
       <c r="R16">
-        <v>16.527235944267</v>
+        <v>1.01674673268</v>
       </c>
       <c r="S16">
-        <v>0.0005978779036493062</v>
+        <v>3.679275360428044E-05</v>
       </c>
       <c r="T16">
-        <v>0.0005978779036493064</v>
+        <v>3.679275360428044E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H17">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I17">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J17">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N17">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O17">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P17">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q17">
-        <v>0.3640263731666666</v>
+        <v>0.001657421975</v>
       </c>
       <c r="R17">
-        <v>3.2762373585</v>
+        <v>0.014916797775</v>
       </c>
       <c r="S17">
-        <v>0.0001185189060265694</v>
+        <v>5.397903405637858E-07</v>
       </c>
       <c r="T17">
-        <v>0.0001185189060265694</v>
+        <v>5.397903405637858E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H18">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I18">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J18">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N18">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q18">
-        <v>2.414376726315556</v>
+        <v>0.1708540590014444</v>
       </c>
       <c r="R18">
-        <v>21.72939053684</v>
+        <v>1.537686531013</v>
       </c>
       <c r="S18">
-        <v>0.0007860674649743534</v>
+        <v>5.564386866241159E-05</v>
       </c>
       <c r="T18">
-        <v>0.0007860674649743534</v>
+        <v>5.564386866241159E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H19">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I19">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J19">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N19">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O19">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P19">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q19">
-        <v>1.073134299898333</v>
+        <v>0.003734698753333333</v>
       </c>
       <c r="R19">
-        <v>9.658208699085</v>
+        <v>0.03361228878</v>
       </c>
       <c r="S19">
-        <v>0.0003493887053763202</v>
+        <v>1.216319285235099E-06</v>
       </c>
       <c r="T19">
-        <v>0.0003493887053763203</v>
+        <v>1.216319285235099E-06</v>
       </c>
     </row>
   </sheetData>
